--- a/Bed_Carbon/LOI/LOI_analysis.xlsx
+++ b/Bed_Carbon/LOI/LOI_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\Bed_Carbon\LOI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837A4815-DE22-498C-B31D-9C54E2C9D543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72AA79A-B9FA-4CE8-8D52-06B6CB5D04C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{40790540-4C63-4CEC-9F22-266E269E9D86}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="70">
   <si>
     <t>SPRING 2023</t>
   </si>
@@ -245,6 +245,9 @@
   <si>
     <t>Δ org* (%)</t>
   </si>
+  <si>
+    <t>Δ org* (g)</t>
+  </si>
 </sst>
 </file>
 
@@ -253,7 +256,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -802,20 +805,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -837,9 +828,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -887,13 +875,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1662,6 +1665,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>spring</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1833,6 +1839,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>summer</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -2021,6 +2030,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>hyp flux</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-AR" baseline="0"/>
+                  <a:t> (m/day)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2083,6 +2152,80 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Δ </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>org</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2905,41 +3048,29 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-AR"/>
-              <a:t>SPRING</a:t>
+              <a:rPr lang="el-GR"/>
+              <a:t>Δ </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="es-AR" b="0"/>
-              <a:t>:</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>organics</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="es-AR" b="0" baseline="0"/>
-              <a:t> </a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>* (g) vs hyp flux</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="el-GR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Δ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-AR" b="0" baseline="0"/>
-              <a:t>organics (%) vs </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="el-GR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Δ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-AR" b="0" baseline="0"/>
-              <a:t>sed*</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-AR" b="0"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31418819473908843"/>
+          <c:y val="2.9312299946268616E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2965,7 +3096,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2979,18 +3110,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'delta analysis'!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>spring</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3023,20 +3146,20 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
+            <c:dispEq val="0"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.1167322834645669E-2"/>
-                  <c:y val="-0.40881087780694081"/>
+                  <c:x val="9.4517628069945722E-2"/>
+                  <c:y val="-0.39545322921702969"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="10000"/>
-                    <a:lumOff val="90000"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:ln>
@@ -3068,81 +3191,84 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'delta analysis'!$C$3:$C$13</c:f>
+              <c:f>'weights and percentages'!$E$3:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.37260761394721104</c:v>
+                  <c:v>0.22851828638601948</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5237038573595546</c:v>
+                  <c:v>0.22851828638601948</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.2910193630130834</c:v>
+                  <c:v>-0.3027637470411495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.3290009554905588</c:v>
+                  <c:v>-9.3318329100743891E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.18419214709373363</c:v>
+                  <c:v>5.0766638815107075E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16492205611484825</c:v>
+                  <c:v>5.0766638815107075E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.46420666562134938</c:v>
+                  <c:v>-3.8520880931257544E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.4019900129454011</c:v>
+                  <c:v>-3.8520880931257544E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.340384840026668E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.37083044951446603</c:v>
+                  <c:v>-6.340384840026668E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.45513066137643327</c:v>
+                  <c:v>-3.2730377491297959E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'delta analysis'!$J$3:$J$13</c:f>
+              <c:f>'weights and percentages'!$D$3:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.19519361027032006</c:v>
+                  <c:v>-0.63264271038860531</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.66804316680566478</c:v>
+                  <c:v>-0.25216621692443686</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49854710443643002</c:v>
+                  <c:v>7.0360183713265176E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9246065038279212</c:v>
+                  <c:v>-0.18146998704026138</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.5464768427525909</c:v>
+                  <c:v>-0.52597353469146801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.50628641399623708</c:v>
+                  <c:v>2.0493574298844346E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.21932285347228794</c:v>
+                  <c:v>-0.4688084854749065</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.38197141359573233</c:v>
+                  <c:v>-0.45240919340255326</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0775013302402989</c:v>
+                  <c:v>3.5291526914175813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16781718326223696</c:v>
+                  <c:v>0.19587801447599956</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.21328231594690392</c:v>
+                  <c:v>-0.51398019451713794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,7 +3276,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-09E6-44C2-B1DA-5852E1484847}"/>
+              <c16:uniqueId val="{00000001-E300-41B7-BB5F-E5FAD04EECB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3158,15 +3284,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'delta analysis'!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>summer</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -3202,12 +3320,12 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
+            <c:dispEq val="0"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.14409580052493437"/>
-                  <c:y val="-0.40660761154855646"/>
+                  <c:x val="0.21671767767505631"/>
+                  <c:y val="-0.14603877803751733"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3247,81 +3365,72 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'delta analysis'!$I$3:$I$13</c:f>
+              <c:f>'weights and percentages'!$E$17:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-0.17090718766294993</c:v>
+                  <c:v>-0.10058679002726996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.66154455868720241</c:v>
+                  <c:v>-0.10058679002726996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37836657174008881</c:v>
+                  <c:v>-0.32001589401318453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83408534785112387</c:v>
+                  <c:v>0.11743877238132332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.52881343083090926</c:v>
+                  <c:v>0.11743877238132332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.46746069406771751</c:v>
+                  <c:v>-4.5718099286610456E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.1916172350303838</c:v>
+                  <c:v>-0.11251612892623995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24340608445804029</c:v>
+                  <c:v>-0.11251612892623995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88413936079901567</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.22694854208365087</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.16816613273490705</c:v>
+                  <c:v>-4.9570413884485784E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'delta analysis'!$C$3:$C$13</c:f>
+              <c:f>'weights and percentages'!$D$17:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-0.37260761394721104</c:v>
+                  <c:v>0.46604876018608732</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5237038573595546</c:v>
+                  <c:v>1.2490035528539172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.2910193630130834</c:v>
+                  <c:v>-0.29578886742586713</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.3290009554905588</c:v>
+                  <c:v>-0.75698005037210736</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.18419214709373363</c:v>
+                  <c:v>2.4748578463643631</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16492205611484825</c:v>
+                  <c:v>0.88690691108488529</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.46420666562134938</c:v>
+                  <c:v>0.58802326064616095</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.4019900129454011</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.37083044951446603</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.45513066137643327</c:v>
+                  <c:v>-0.69772415464918003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58541681947144408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3329,365 +3438,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-09E6-44C2-B1DA-5852E1484847}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'delta analysis'!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.1079177602799647E-2"/>
-                  <c:y val="-0.24944262175561388"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'delta analysis'!$H$3:$H$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-0.14476461895714599</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.62752416499186525</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.68484476158971674</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9647735442127966</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.53822408617716566</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.28755929503826028</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.1673238048299657</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.55129359505372444</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.81794599693432346</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.19992254066615028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.23993040911008026</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'delta analysis'!$C$3:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-0.37260761394721104</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5237038573595546</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.2910193630130834</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.3290009554905588</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.18419214709373363</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16492205611484825</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.46420666562134938</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.4019900129454011</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.37083044951446603</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.45513066137643327</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-09E6-44C2-B1DA-5852E1484847}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'delta analysis'!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.34161789151356081"/>
-                  <c:y val="-0.26866214639836689"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'delta analysis'!$G$3:$G$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-0.42344355789344579</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.5020136188546287</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.50307003206968748</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.18568064573209747</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.40841886730444749</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-9.9314564883500683E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3731051760010023E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.11611996843987095</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.12971185233686874</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.16454254500104976</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.10014587141525548</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'delta analysis'!$C$3:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-0.37260761394721104</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5237038573595546</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.2910193630130834</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.3290009554905588</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.18419214709373363</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16492205611484825</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.46420666562134938</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.4019900129454011</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.37083044951446603</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.45513066137643327</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-09E6-44C2-B1DA-5852E1484847}"/>
+              <c16:uniqueId val="{00000003-E300-41B7-BB5F-E5FAD04EECB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3699,11 +3450,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="448948783"/>
-        <c:axId val="448938703"/>
+        <c:axId val="1155172144"/>
+        <c:axId val="1155175024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="448948783"/>
+        <c:axId val="1155172144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3744,8 +3495,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-AR"/>
-                  <a:t>d sediment*</a:t>
+                  <a:t>hyp flux</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="es-AR" baseline="0"/>
+                  <a:t> (m/day)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3779,7 +3535,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
@@ -3815,12 +3571,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448938703"/>
+        <c:crossAx val="1155175024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="448938703"/>
+        <c:axId val="1155175024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3860,9 +3616,28 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-AR"/>
-                  <a:t>d organics*</a:t>
+                  <a:rPr lang="el-GR" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Δ </a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>org</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3932,7 +3707,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448948783"/>
+        <c:crossAx val="1155172144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3947,19 +3722,11 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:legendEntry>
-        <c:idx val="4"/>
+        <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
-        <c:idx val="5"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="6"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="7"/>
+        <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:overlay val="0"/>
@@ -4069,8 +3836,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>SPRING</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="es-AR" b="0"/>
-              <a:t>SPRING:</a:t>
+              <a:t>:</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-AR" b="0" baseline="0"/>
@@ -4084,7 +3855,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-AR" b="0" baseline="0"/>
-              <a:t>organics (g) vs </a:t>
+              <a:t>organics (%) vs </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="el-GR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -4100,14 +3871,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.28410934392694587"/>
-          <c:y val="2.5449915768126552E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4195,8 +3958,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.17994760148652306"/>
-                  <c:y val="-6.2709211157034483E-2"/>
+                  <c:x val="3.1167322834645669E-2"/>
+                  <c:y val="-0.40881087780694081"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4236,42 +3999,39 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'delta analysis'!$D$3:$D$13</c:f>
+              <c:f>'delta analysis'!$C$3:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-1.3158264402899311</c:v>
+                  <c:v>-0.37260761394721104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.2732910909667452</c:v>
+                  <c:v>0.5237038573595546</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13595391409125046</c:v>
+                  <c:v>-0.2910193630130834</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.33377104088834764</c:v>
+                  <c:v>-0.3290009554905588</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.93941346143482374</c:v>
+                  <c:v>-0.18419214709373363</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8508749741586126E-2</c:v>
+                  <c:v>0.16492205611484825</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.73620755538710114</c:v>
+                  <c:v>-0.46420666562134938</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.63747646261207547</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.85855975124179273</c:v>
+                  <c:v>-0.4019900129454011</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14650184501352836</c:v>
+                  <c:v>0.37083044951446603</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.67235891246055568</c:v>
+                  <c:v>-0.45513066137643327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4321,7 +4081,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F2AD-45FC-AC24-47E4BDE79C24}"/>
+              <c16:uniqueId val="{00000000-09E6-44C2-B1DA-5852E1484847}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4377,8 +4137,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.21928872814948763"/>
-                  <c:y val="-2.8023317008745553E-4"/>
+                  <c:x val="0.14409580052493437"/>
+                  <c:y val="-0.40660761154855646"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4460,42 +4220,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'delta analysis'!$D$3:$D$13</c:f>
+              <c:f>'delta analysis'!$C$3:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-1.3158264402899311</c:v>
+                  <c:v>-0.37260761394721104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.2732910909667452</c:v>
+                  <c:v>0.5237038573595546</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13595391409125046</c:v>
+                  <c:v>-0.2910193630130834</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.33377104088834764</c:v>
+                  <c:v>-0.3290009554905588</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.93941346143482374</c:v>
+                  <c:v>-0.18419214709373363</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8508749741586126E-2</c:v>
+                  <c:v>0.16492205611484825</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.73620755538710114</c:v>
+                  <c:v>-0.46420666562134938</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.63747646261207547</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.85855975124179273</c:v>
+                  <c:v>-0.4019900129454011</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14650184501352836</c:v>
+                  <c:v>0.37083044951446603</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.67235891246055568</c:v>
+                  <c:v>-0.45513066137643327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4503,7 +4260,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F2AD-45FC-AC24-47E4BDE79C24}"/>
+              <c16:uniqueId val="{00000002-09E6-44C2-B1DA-5852E1484847}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4559,8 +4316,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.12359641753641554"/>
-                  <c:y val="0.24881655118780652"/>
+                  <c:x val="-5.1079177602799647E-2"/>
+                  <c:y val="-0.24944262175561388"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4642,42 +4399,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'delta analysis'!$D$3:$D$13</c:f>
+              <c:f>'delta analysis'!$C$3:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-1.3158264402899311</c:v>
+                  <c:v>-0.37260761394721104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.2732910909667452</c:v>
+                  <c:v>0.5237038573595546</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13595391409125046</c:v>
+                  <c:v>-0.2910193630130834</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.33377104088834764</c:v>
+                  <c:v>-0.3290009554905588</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.93941346143482374</c:v>
+                  <c:v>-0.18419214709373363</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8508749741586126E-2</c:v>
+                  <c:v>0.16492205611484825</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.73620755538710114</c:v>
+                  <c:v>-0.46420666562134938</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.63747646261207547</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.85855975124179273</c:v>
+                  <c:v>-0.4019900129454011</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14650184501352836</c:v>
+                  <c:v>0.37083044951446603</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.67235891246055568</c:v>
+                  <c:v>-0.45513066137643327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4685,7 +4439,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F2AD-45FC-AC24-47E4BDE79C24}"/>
+              <c16:uniqueId val="{00000003-09E6-44C2-B1DA-5852E1484847}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4741,8 +4495,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.33352389495616847"/>
-                  <c:y val="0.17024433248525928"/>
+                  <c:x val="0.34161789151356081"/>
+                  <c:y val="-0.26866214639836689"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4824,42 +4578,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'delta analysis'!$D$3:$D$13</c:f>
+              <c:f>'delta analysis'!$C$3:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-1.3158264402899311</c:v>
+                  <c:v>-0.37260761394721104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.2732910909667452</c:v>
+                  <c:v>0.5237038573595546</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13595391409125046</c:v>
+                  <c:v>-0.2910193630130834</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.33377104088834764</c:v>
+                  <c:v>-0.3290009554905588</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.93941346143482374</c:v>
+                  <c:v>-0.18419214709373363</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8508749741586126E-2</c:v>
+                  <c:v>0.16492205611484825</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.73620755538710114</c:v>
+                  <c:v>-0.46420666562134938</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.63747646261207547</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.85855975124179273</c:v>
+                  <c:v>-0.4019900129454011</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14650184501352836</c:v>
+                  <c:v>0.37083044951446603</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.67235891246055568</c:v>
+                  <c:v>-0.45513066137643327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4867,7 +4618,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-F2AD-45FC-AC24-47E4BDE79C24}"/>
+              <c16:uniqueId val="{00000004-09E6-44C2-B1DA-5852E1484847}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5250,6 +5001,1186 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-AR" b="0"/>
+              <a:t>SPRING:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" b="0" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Δ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" b="0" baseline="0"/>
+              <a:t>organics (g) vs </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Δ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" b="0" baseline="0"/>
+              <a:t>sed*</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-AR" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28410934392694587"/>
+          <c:y val="2.5449915768126552E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'delta analysis'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17994760148652306"/>
+                  <c:y val="-6.2709211157034483E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="10000"/>
+                    <a:lumOff val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'delta analysis'!$D$3:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-1.3158264402899311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2732910909667452</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13595391409125046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.33377104088834764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.93941346143482374</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8508749741586126E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.73620755538710114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.63747646261207547</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85855975124179273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14650184501352836</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.67235891246055568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'delta analysis'!$J$3:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-0.19519361027032006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.66804316680566478</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49854710443643002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9246065038279212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.5464768427525909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.50628641399623708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.21932285347228794</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38197141359573233</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0775013302402989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16781718326223696</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.21328231594690392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F2AD-45FC-AC24-47E4BDE79C24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'delta analysis'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.21928872814948763"/>
+                  <c:y val="-2.8023317008745553E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'delta analysis'!$I$3:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-0.17090718766294993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.66154455868720241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37836657174008881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83408534785112387</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.52881343083090926</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.46746069406771751</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1916172350303838</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24340608445804029</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88413936079901567</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22694854208365087</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.16816613273490705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'delta analysis'!$D$3:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-1.3158264402899311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2732910909667452</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13595391409125046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.33377104088834764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.93941346143482374</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8508749741586126E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.73620755538710114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.63747646261207547</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85855975124179273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14650184501352836</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.67235891246055568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F2AD-45FC-AC24-47E4BDE79C24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'delta analysis'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12359641753641554"/>
+                  <c:y val="0.24881655118780652"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'delta analysis'!$H$3:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-0.14476461895714599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.62752416499186525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68484476158971674</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9647735442127966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.53822408617716566</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.28755929503826028</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1673238048299657</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55129359505372444</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81794599693432346</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19992254066615028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.23993040911008026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'delta analysis'!$D$3:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-1.3158264402899311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2732910909667452</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13595391409125046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.33377104088834764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.93941346143482374</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8508749741586126E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.73620755538710114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.63747646261207547</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85855975124179273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14650184501352836</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.67235891246055568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F2AD-45FC-AC24-47E4BDE79C24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'delta analysis'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.33352389495616847"/>
+                  <c:y val="0.17024433248525928"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'delta analysis'!$G$3:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-0.42344355789344579</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.5020136188546287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50307003206968748</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18568064573209747</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.40841886730444749</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.9314564883500683E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3731051760010023E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.11611996843987095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12971185233686874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.16454254500104976</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.10014587141525548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'delta analysis'!$D$3:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-1.3158264402899311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2732910909667452</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13595391409125046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.33377104088834764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.93941346143482374</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8508749741586126E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.73620755538710114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.63747646261207547</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85855975124179273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14650184501352836</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.67235891246055568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F2AD-45FC-AC24-47E4BDE79C24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="448948783"/>
+        <c:axId val="448938703"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="448948783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>d sediment*</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448938703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="448938703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>d organics*</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448948783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR" b="0"/>
               <a:t>SUMMER:</a:t>
             </a:r>
             <a:r>
@@ -6347,7 +7278,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -15352,6 +16283,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -18769,6 +19740,522 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23821,6 +25308,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>439270</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>753035</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7224E341-D9B2-4BA5-87A7-3C70A5E36116}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -24303,8 +25828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D457AD1F-8511-4FBC-B9C9-6FE3AF479F28}">
   <dimension ref="A1:AB83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24323,13 +25848,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -24341,8 +25866,8 @@
       <c r="C2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="66" t="s">
-        <v>58</v>
+      <c r="D2" s="62" t="s">
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -24361,7 +25886,7 @@
       <c r="C3" s="25">
         <v>-0.37260761394721104</v>
       </c>
-      <c r="D3" s="76">
+      <c r="D3" s="71">
         <v>-0.63264271038860531</v>
       </c>
       <c r="E3" s="12">
@@ -24381,7 +25906,7 @@
       <c r="C4" s="25">
         <v>0.5237038573595546</v>
       </c>
-      <c r="D4" s="76">
+      <c r="D4" s="71">
         <v>-0.25216621692443686</v>
       </c>
       <c r="E4" s="12">
@@ -24401,7 +25926,7 @@
       <c r="C5" s="25">
         <v>-0.2910193630130834</v>
       </c>
-      <c r="D5" s="76">
+      <c r="D5" s="71">
         <v>7.0360183713265176E-2</v>
       </c>
       <c r="E5" s="13">
@@ -24421,7 +25946,7 @@
       <c r="C6" s="25">
         <v>-0.3290009554905588</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="71">
         <v>-0.18146998704026138</v>
       </c>
       <c r="E6" s="14">
@@ -24441,7 +25966,7 @@
       <c r="C7" s="25">
         <v>-0.18419214709373363</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="71">
         <v>-0.52597353469146801</v>
       </c>
       <c r="E7" s="15">
@@ -24461,7 +25986,7 @@
       <c r="C8" s="25">
         <v>0.16492205611484825</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="71">
         <v>2.0493574298844346E-2</v>
       </c>
       <c r="E8" s="15">
@@ -24481,7 +26006,7 @@
       <c r="C9" s="25">
         <v>-0.46420666562134938</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="71">
         <v>-0.4688084854749065</v>
       </c>
       <c r="E9" s="16">
@@ -24501,7 +26026,7 @@
       <c r="C10" s="25">
         <v>-0.4019900129454011</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="71">
         <v>-0.45240919340255326</v>
       </c>
       <c r="E10" s="16">
@@ -24521,7 +26046,7 @@
       <c r="C11" s="25">
         <v>2.9222985036342748</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="71">
         <v>3.5291526914175813</v>
       </c>
       <c r="E11" s="13">
@@ -24541,7 +26066,7 @@
       <c r="C12" s="25">
         <v>0.37083044951446603</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="71">
         <v>0.19587801447599956</v>
       </c>
       <c r="E12" s="13">
@@ -24561,7 +26086,7 @@
       <c r="C13" s="25">
         <v>-0.45513066137643327</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="71">
         <v>-0.51398019451713794</v>
       </c>
       <c r="E13" s="17">
@@ -24572,13 +26097,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
@@ -24590,8 +26115,8 @@
       <c r="C16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="66" t="s">
-        <v>58</v>
+      <c r="D16" s="62" t="s">
+        <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -24610,7 +26135,7 @@
       <c r="C17" s="19">
         <v>0.32509818200082385</v>
       </c>
-      <c r="D17" s="75">
+      <c r="D17" s="70">
         <v>0.46604876018608732</v>
       </c>
       <c r="E17" s="21">
@@ -24630,7 +26155,7 @@
       <c r="C18" s="19">
         <v>0.1550646430241914</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="70">
         <v>1.2490035528539172</v>
       </c>
       <c r="E18" s="21">
@@ -24650,7 +26175,7 @@
       <c r="C19" s="19">
         <v>-0.5205687803076402</v>
       </c>
-      <c r="D19" s="75">
+      <c r="D19" s="70">
         <v>-0.29578886742586713</v>
       </c>
       <c r="E19" s="22">
@@ -24670,7 +26195,7 @@
       <c r="C20" s="19">
         <v>-0.67325369540717739</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="70">
         <v>-0.75698005037210736</v>
       </c>
       <c r="E20" s="23">
@@ -24690,7 +26215,7 @@
       <c r="C21" s="19">
         <v>4.1361992971835821</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="70">
         <v>2.4748578463643631</v>
       </c>
       <c r="E21" s="23">
@@ -24710,7 +26235,7 @@
       <c r="C22" s="19">
         <v>2.2185708570683809</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="70">
         <v>0.88690691108488529</v>
       </c>
       <c r="E22" s="16">
@@ -24730,7 +26255,7 @@
       <c r="C23" s="19">
         <v>0.54826424560958309</v>
       </c>
-      <c r="D23" s="75">
+      <c r="D23" s="70">
         <v>0.58802326064616095</v>
       </c>
       <c r="E23" s="22">
@@ -24750,7 +26275,7 @@
       <c r="C24" s="19">
         <v>-0.61111362422933635</v>
       </c>
-      <c r="D24" s="75">
+      <c r="D24" s="70">
         <v>-0.69772415464918003</v>
       </c>
       <c r="E24" s="22">
@@ -24770,7 +26295,7 @@
       <c r="C25" s="19">
         <v>0.56385823642797528</v>
       </c>
-      <c r="D25" s="75">
+      <c r="D25" s="70">
         <v>0.58541681947144408</v>
       </c>
       <c r="E25" s="24">
@@ -25952,7 +27477,7 @@
       <c r="F54" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="64">
+      <c r="G54" s="60">
         <f>AVERAGE(G30:G52)</f>
         <v>3.6738648362160076</v>
       </c>
@@ -27084,7 +28609,7 @@
       <c r="F81" t="s">
         <v>53</v>
       </c>
-      <c r="G81" s="64">
+      <c r="G81" s="60">
         <f>AVERAGE(G58:G79)</f>
         <v>17.605444852369633</v>
       </c>
@@ -27093,7 +28618,7 @@
       <c r="B82" t="s">
         <v>55</v>
       </c>
-      <c r="C82" s="65">
+      <c r="C82" s="61">
         <f>G81/G54</f>
         <v>4.792077454461503</v>
       </c>
@@ -27118,7 +28643,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E25"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27132,35 +28657,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="G1" s="88" t="s">
+      <c r="E1" s="89"/>
+      <c r="G1" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="62" t="s">
         <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -27169,396 +28694,396 @@
       <c r="G2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="89" t="s">
+      <c r="J2" s="84" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="76">
+      <c r="B3" s="71">
         <v>-1.6483971368232724</v>
       </c>
-      <c r="C3" s="76">
+      <c r="C3" s="71">
         <v>-0.37260761394721104</v>
       </c>
-      <c r="D3" s="76">
+      <c r="D3" s="71">
         <v>-1.3158264402899311</v>
       </c>
-      <c r="E3" s="76">
+      <c r="E3" s="71">
         <v>-0.63264271038860531</v>
       </c>
-      <c r="F3" s="77">
+      <c r="F3" s="72">
         <v>0.22851828638601948</v>
       </c>
-      <c r="G3" s="87">
+      <c r="G3" s="82">
         <v>-0.42344355789344579</v>
       </c>
-      <c r="H3" s="87">
+      <c r="H3" s="82">
         <v>-0.14476461895714599</v>
       </c>
-      <c r="I3" s="87">
+      <c r="I3" s="82">
         <v>-0.17090718766294993</v>
       </c>
-      <c r="J3" s="87">
+      <c r="J3" s="82">
         <v>-0.19519361027032006</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="76">
+      <c r="B4" s="71">
         <v>1.9204594254007796</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="71">
         <v>0.5237038573595546</v>
       </c>
-      <c r="D4" s="76">
+      <c r="D4" s="71">
         <v>-0.2732910909667452</v>
       </c>
-      <c r="E4" s="76">
+      <c r="E4" s="71">
         <v>-0.25216621692443686</v>
       </c>
-      <c r="F4" s="77">
+      <c r="F4" s="72">
         <v>0.22851828638601948</v>
       </c>
-      <c r="G4" s="87">
+      <c r="G4" s="82">
         <v>-0.5020136188546287</v>
       </c>
-      <c r="H4" s="87">
+      <c r="H4" s="82">
         <v>-0.62752416499186525</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="82">
         <v>-0.66154455868720241</v>
       </c>
-      <c r="J4" s="87">
+      <c r="J4" s="82">
         <v>-0.66804316680566478</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="71">
         <v>-1.1841267291405169</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="71">
         <v>-0.2910193630130834</v>
       </c>
-      <c r="D5" s="76">
+      <c r="D5" s="71">
         <v>0.13595391409125046</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="71">
         <v>7.0360183713265176E-2</v>
       </c>
-      <c r="F5" s="78">
+      <c r="F5" s="73">
         <v>-0.3027637470411495</v>
       </c>
-      <c r="G5" s="87">
+      <c r="G5" s="82">
         <v>0.50307003206968748</v>
       </c>
-      <c r="H5" s="87">
+      <c r="H5" s="82">
         <v>0.68484476158971674</v>
       </c>
-      <c r="I5" s="87">
+      <c r="I5" s="82">
         <v>0.37836657174008881</v>
       </c>
-      <c r="J5" s="87">
+      <c r="J5" s="82">
         <v>0.49854710443643002</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="71">
         <v>-1.5602010563707491</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="71">
         <v>-0.3290009554905588</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="71">
         <v>-0.33377104088834764</v>
       </c>
-      <c r="E6" s="76">
+      <c r="E6" s="71">
         <v>-0.18146998704026138</v>
       </c>
-      <c r="F6" s="79">
+      <c r="F6" s="74">
         <v>-9.3318329100743891E-2</v>
       </c>
-      <c r="G6" s="87">
+      <c r="G6" s="82">
         <v>0.18568064573209747</v>
       </c>
-      <c r="H6" s="87">
+      <c r="H6" s="82">
         <v>0.9647735442127966</v>
       </c>
-      <c r="I6" s="87">
+      <c r="I6" s="82">
         <v>0.83408534785112387</v>
       </c>
-      <c r="J6" s="87">
+      <c r="J6" s="82">
         <v>0.9246065038279212</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="71">
         <v>-0.60090642056989108</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="71">
         <v>-0.18419214709373363</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="71">
         <v>-0.93941346143482374</v>
       </c>
-      <c r="E7" s="76">
+      <c r="E7" s="71">
         <v>-0.52597353469146801</v>
       </c>
-      <c r="F7" s="80">
+      <c r="F7" s="75">
         <v>5.0766638815107075E-2</v>
       </c>
-      <c r="G7" s="87">
+      <c r="G7" s="82">
         <v>-0.40841886730444749</v>
       </c>
-      <c r="H7" s="87">
+      <c r="H7" s="82">
         <v>-0.53822408617716566</v>
       </c>
-      <c r="I7" s="87">
+      <c r="I7" s="82">
         <v>-0.52881343083090926</v>
       </c>
-      <c r="J7" s="87">
+      <c r="J7" s="82">
         <v>-0.5464768427525909</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="76">
+      <c r="B8" s="71">
         <v>0.83214251247747395</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="71">
         <v>0.16492205611484825</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="71">
         <v>2.8508749741586126E-2</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8" s="71">
         <v>2.0493574298844346E-2</v>
       </c>
-      <c r="F8" s="80">
+      <c r="F8" s="75">
         <v>5.0766638815107075E-2</v>
       </c>
-      <c r="G8" s="87">
+      <c r="G8" s="82">
         <v>-9.9314564883500683E-2</v>
       </c>
-      <c r="H8" s="87">
+      <c r="H8" s="82">
         <v>-0.28755929503826028</v>
       </c>
-      <c r="I8" s="87">
+      <c r="I8" s="82">
         <v>-0.46746069406771751</v>
       </c>
-      <c r="J8" s="87">
+      <c r="J8" s="82">
         <v>-0.50628641399623708</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="76">
+      <c r="B9" s="71">
         <v>-1.1500861383099454</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="71">
         <v>-0.46420666562134938</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="71">
         <v>-0.73620755538710114</v>
       </c>
-      <c r="E9" s="76">
+      <c r="E9" s="71">
         <v>-0.4688084854749065</v>
       </c>
-      <c r="F9" s="81">
+      <c r="F9" s="76">
         <v>-3.8520880931257544E-2</v>
       </c>
-      <c r="G9" s="87">
+      <c r="G9" s="82">
         <v>3.3731051760010023E-3</v>
       </c>
-      <c r="H9" s="87">
+      <c r="H9" s="82">
         <v>-0.1673238048299657</v>
       </c>
-      <c r="I9" s="87">
+      <c r="I9" s="82">
         <v>-0.1916172350303838</v>
       </c>
-      <c r="J9" s="87">
+      <c r="J9" s="82">
         <v>-0.21932285347228794</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="71">
         <v>-1.7774606768856516</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="71">
         <v>-0.4019900129454011</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="71">
         <v>-0.63747646261207547</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="71">
         <v>-0.45240919340255326</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="76">
         <v>-3.8520880931257544E-2</v>
       </c>
-      <c r="G10" s="87">
+      <c r="G10" s="82">
         <v>-0.11611996843987095</v>
       </c>
-      <c r="H10" s="87">
+      <c r="H10" s="82">
         <v>0.55129359505372444</v>
       </c>
-      <c r="I10" s="87">
+      <c r="I10" s="82">
         <v>0.24340608445804029</v>
       </c>
-      <c r="J10" s="87">
+      <c r="J10" s="82">
         <v>0.38197141359573233</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="71">
         <v>3.2581113671767938</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76">
+      <c r="C11" s="71"/>
+      <c r="D11" s="71">
         <v>0.85855975124179273</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="71">
         <v>3.5291526914175813</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="73">
         <v>-6.340384840026668E-2</v>
       </c>
-      <c r="G11" s="87">
+      <c r="G11" s="82">
         <v>0.12971185233686874</v>
       </c>
-      <c r="H11" s="87">
+      <c r="H11" s="82">
         <v>0.81794599693432346</v>
       </c>
-      <c r="I11" s="87">
+      <c r="I11" s="82">
         <v>0.88413936079901567</v>
       </c>
-      <c r="J11" s="87">
+      <c r="J11" s="82">
         <v>1.0775013302402989</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="76">
+      <c r="B12" s="71">
         <v>1.626112202120205</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="71">
         <v>0.37083044951446603</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="71">
         <v>0.14650184501352836</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="71">
         <v>0.19587801447599956</v>
       </c>
-      <c r="F12" s="78">
+      <c r="F12" s="73">
         <v>-6.340384840026668E-2</v>
       </c>
-      <c r="G12" s="87">
+      <c r="G12" s="82">
         <v>-0.16454254500104976</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="82">
         <v>0.19992254066615028</v>
       </c>
-      <c r="I12" s="87">
+      <c r="I12" s="82">
         <v>0.22694854208365087</v>
       </c>
-      <c r="J12" s="87">
+      <c r="J12" s="82">
         <v>0.16781718326223696</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="71">
         <v>-1.6989755091364964</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="71">
         <v>-0.45513066137643327</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="71">
         <v>-0.67235891246055568</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="71">
         <v>-0.51398019451713794</v>
       </c>
-      <c r="F13" s="82">
+      <c r="F13" s="77">
         <v>-3.2730377491297959E-2</v>
       </c>
-      <c r="G13" s="87">
+      <c r="G13" s="82">
         <v>-0.10014587141525548</v>
       </c>
-      <c r="H13" s="87">
+      <c r="H13" s="82">
         <v>-0.23993040911008026</v>
       </c>
-      <c r="I13" s="87">
+      <c r="I13" s="82">
         <v>-0.16816613273490705</v>
       </c>
-      <c r="J13" s="87">
+      <c r="J13" s="82">
         <v>-0.21328231594690392</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73" t="s">
+      <c r="C15" s="89"/>
+      <c r="D15" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="73"/>
-      <c r="G15" s="90" t="s">
+      <c r="E15" s="89"/>
+      <c r="G15" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="62" t="s">
         <v>58</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -27567,65 +29092,65 @@
       <c r="G16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="89" t="s">
+      <c r="H16" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="89" t="s">
+      <c r="I16" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="89" t="s">
+      <c r="J16" s="84" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="74">
+      <c r="B17" s="69">
         <v>8.1231541756749834</v>
       </c>
-      <c r="C17" s="74">
+      <c r="C17" s="69">
         <v>0.32509818200082385</v>
       </c>
-      <c r="D17" s="75">
+      <c r="D17" s="70">
         <v>1.3274080771213277</v>
       </c>
-      <c r="E17" s="75">
+      <c r="E17" s="70">
         <v>0.46604876018608732</v>
       </c>
-      <c r="F17" s="83">
+      <c r="F17" s="78">
         <v>-0.10058679002726996</v>
       </c>
-      <c r="G17" s="87">
+      <c r="G17" s="82">
         <v>2.3393227366966245E-2</v>
       </c>
-      <c r="H17" s="87">
+      <c r="H17" s="82">
         <v>0.21192312720617082</v>
       </c>
-      <c r="I17" s="87">
+      <c r="I17" s="82">
         <v>0.18113342844921793</v>
       </c>
-      <c r="J17" s="87">
+      <c r="J17" s="82">
         <v>0.18061966240201743</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="74">
+      <c r="B18" s="69">
         <v>3.9533123995991382</v>
       </c>
-      <c r="C18" s="74">
+      <c r="C18" s="69">
         <v>0.1550646430241914</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="70">
         <v>2.7101455477796672</v>
       </c>
-      <c r="E18" s="75">
+      <c r="E18" s="70">
         <v>1.2490035528539172</v>
       </c>
-      <c r="F18" s="83">
+      <c r="F18" s="78">
         <v>-0.10058679002726996</v>
       </c>
       <c r="G18" s="91">
@@ -27642,226 +29167,226 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="74">
+      <c r="B19" s="69">
         <v>-12.254280012382969</v>
       </c>
-      <c r="C19" s="74">
+      <c r="C19" s="69">
         <v>-0.5205687803076402</v>
       </c>
-      <c r="D19" s="75">
+      <c r="D19" s="70">
         <v>-0.71745944191982947</v>
       </c>
-      <c r="E19" s="75">
+      <c r="E19" s="70">
         <v>-0.29578886742586713</v>
       </c>
-      <c r="F19" s="84">
+      <c r="F19" s="79">
         <v>-0.32001589401318453</v>
       </c>
-      <c r="G19" s="87">
+      <c r="G19" s="82">
         <v>0.66829633325018678</v>
       </c>
-      <c r="H19" s="87">
+      <c r="H19" s="82">
         <v>0.20250643610045177</v>
       </c>
-      <c r="I19" s="87">
+      <c r="I19" s="82">
         <v>0.37213856331253387</v>
       </c>
-      <c r="J19" s="87">
+      <c r="J19" s="82">
         <v>0.25528328492852753</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="74">
+      <c r="B20" s="69">
         <v>-16.574973463877441</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="69">
         <v>-0.67325369540717739</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="70">
         <v>-3.7331018023067366</v>
       </c>
-      <c r="E20" s="75">
+      <c r="E20" s="70">
         <v>-0.75698005037210736</v>
       </c>
-      <c r="F20" s="85">
+      <c r="F20" s="80">
         <v>0.11743877238132332</v>
       </c>
-      <c r="G20" s="87">
+      <c r="G20" s="82">
         <v>-0.32755116549434199</v>
       </c>
-      <c r="H20" s="87">
+      <c r="H20" s="82">
         <v>-0.1111434428939886</v>
       </c>
-      <c r="I20" s="87">
+      <c r="I20" s="82">
         <v>-0.21756337854262581</v>
       </c>
-      <c r="J20" s="87">
+      <c r="J20" s="82">
         <v>-0.2142122573951242</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="74">
+      <c r="B21" s="69">
         <v>15.05706651889572</v>
       </c>
-      <c r="C21" s="74">
+      <c r="C21" s="69">
         <v>4.1361992971835821</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="70">
         <v>1.5298265816249956</v>
       </c>
-      <c r="E21" s="75">
+      <c r="E21" s="70">
         <v>2.4748578463643631</v>
       </c>
-      <c r="F21" s="85">
+      <c r="F21" s="80">
         <v>0.11743877238132332</v>
       </c>
-      <c r="G21" s="87">
+      <c r="G21" s="82">
         <v>-0.55117481364432686</v>
       </c>
-      <c r="H21" s="87">
+      <c r="H21" s="82">
         <v>0.18041013933716418</v>
       </c>
-      <c r="I21" s="87">
+      <c r="I21" s="82">
         <v>0.61912755541298103</v>
       </c>
-      <c r="J21" s="87">
+      <c r="J21" s="82">
         <v>-0.12536154658065624</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="74">
+      <c r="B22" s="69">
         <v>14.802348568297454</v>
       </c>
-      <c r="C22" s="74">
+      <c r="C22" s="69">
         <v>2.2185708570683809</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="70">
         <v>0.89098609864699019</v>
       </c>
-      <c r="E22" s="75">
+      <c r="E22" s="70">
         <v>0.88690691108488529</v>
       </c>
-      <c r="F22" s="81">
+      <c r="F22" s="76">
         <v>-4.5718099286610456E-2</v>
       </c>
-      <c r="G22" s="87">
+      <c r="G22" s="82">
         <v>-0.6767529795555226</v>
       </c>
-      <c r="H22" s="87">
+      <c r="H22" s="82">
         <v>0.33808273647184778</v>
       </c>
-      <c r="I22" s="87">
+      <c r="I22" s="82">
         <v>0.14042193729166219</v>
       </c>
-      <c r="J22" s="87">
+      <c r="J22" s="82">
         <v>0.19235164956740658</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="74">
+      <c r="B23" s="69">
         <v>7.8467785103607337</v>
       </c>
-      <c r="C23" s="74">
+      <c r="C23" s="69">
         <v>0.54826424560958309</v>
       </c>
-      <c r="D23" s="75">
+      <c r="D23" s="70">
         <v>1.0759109452434867</v>
       </c>
-      <c r="E23" s="75">
+      <c r="E23" s="70">
         <v>0.58802326064616095</v>
       </c>
-      <c r="F23" s="84">
+      <c r="F23" s="79">
         <v>-0.11251612892623995</v>
       </c>
-      <c r="G23" s="87">
+      <c r="G23" s="82">
         <v>-0.2568978668560456</v>
       </c>
-      <c r="H23" s="87">
+      <c r="H23" s="82">
         <v>0.41571990278793169</v>
       </c>
-      <c r="I23" s="87">
+      <c r="I23" s="82">
         <v>-4.2676842244790236E-2</v>
       </c>
-      <c r="J23" s="87">
+      <c r="J23" s="82">
         <v>6.9338931211544927E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="74">
+      <c r="B24" s="69">
         <v>-16.888233650856932</v>
       </c>
-      <c r="C24" s="74">
+      <c r="C24" s="69">
         <v>-0.61111362422933635</v>
       </c>
-      <c r="D24" s="75">
+      <c r="D24" s="70">
         <v>-2.3992836405960052</v>
       </c>
-      <c r="E24" s="75">
+      <c r="E24" s="70">
         <v>-0.69772415464918003</v>
       </c>
-      <c r="F24" s="84">
+      <c r="F24" s="79">
         <v>-0.11251612892623995</v>
       </c>
-      <c r="G24" s="87">
+      <c r="G24" s="82">
         <v>-0.45259306123146897</v>
       </c>
-      <c r="H24" s="87">
+      <c r="H24" s="82">
         <v>-6.9462914000529832E-3</v>
       </c>
-      <c r="I24" s="87">
+      <c r="I24" s="82">
         <v>-3.6073196664670334E-2</v>
       </c>
-      <c r="J24" s="87">
+      <c r="J24" s="82">
         <v>0.30506992688237528</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="74">
+      <c r="B25" s="69">
         <v>7.0700885648010825</v>
       </c>
-      <c r="C25" s="74">
+      <c r="C25" s="69">
         <v>0.56385823642797528</v>
       </c>
-      <c r="D25" s="75">
+      <c r="D25" s="70">
         <v>0.99998360098677064</v>
       </c>
-      <c r="E25" s="75">
+      <c r="E25" s="70">
         <v>0.58541681947144408</v>
       </c>
-      <c r="F25" s="86">
+      <c r="F25" s="81">
         <v>-4.9570413884485784E-2</v>
       </c>
-      <c r="G25" s="87">
+      <c r="G25" s="82">
         <v>-0.22067472164208743</v>
       </c>
-      <c r="H25" s="87">
+      <c r="H25" s="82">
         <v>0.37138453818859557</v>
       </c>
-      <c r="I25" s="87">
+      <c r="I25" s="82">
         <v>0.99506573971751766</v>
       </c>
-      <c r="J25" s="87">
+      <c r="J25" s="82">
         <v>0.73881089123312471</v>
       </c>
     </row>
